--- a/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_kitchens_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>

--- a/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_kitchens_1.xlsx
@@ -1461,7 +1461,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/catch_15_stairs.jpg</t>
+          <t>stimuli/catch_29.jpg</t>
         </is>
       </c>
     </row>
